--- a/DATA_goal/Junction_Flooding_434.xlsx
+++ b/DATA_goal/Junction_Flooding_434.xlsx
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.48</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.97</v>
+        <v>49.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.35</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_434.xlsx
+++ b/DATA_goal/Junction_Flooding_434.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45115.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45115.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.26</v>
+        <v>12.438</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.13</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.644</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.55</v>
+        <v>27.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.21</v>
+        <v>21.233</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.95</v>
+        <v>9.670999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.86</v>
+        <v>37.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.57</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.64</v>
+        <v>6.446</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.24</v>
+        <v>9.346</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.83</v>
+        <v>10.795</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.42</v>
+        <v>11.458</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.11</v>
+        <v>3.141</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.36</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.92</v>
+        <v>13.693</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.12</v>
+        <v>8.586</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.431</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.19</v>
+        <v>141.465</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.29</v>
+        <v>27.369</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.58</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.46</v>
+        <v>17.954</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.23</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.33</v>
+        <v>1.907</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.82</v>
+        <v>18.502</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.12</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.66</v>
+        <v>7.234</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.23</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.94</v>
+        <v>11.058</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.65</v>
+        <v>34.625</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.48</v>
+        <v>4.876</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.7</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45115.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.27</v>
+        <v>22.531</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.34</v>
+        <v>16.557</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.514</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.01</v>
+        <v>49.272</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.6</v>
+        <v>39.785</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.7</v>
+        <v>17.641</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.71</v>
+        <v>66.913</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.06</v>
+        <v>27.341</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.74</v>
+        <v>12.058</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.94</v>
+        <v>17.777</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.15</v>
+        <v>19.667</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.1</v>
+        <v>20.859</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.47</v>
+        <v>5.676</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.94</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.08</v>
+        <v>25.073</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.056</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.993</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.31</v>
+        <v>261.643</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.54</v>
+        <v>49.381</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.96</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.53</v>
+        <v>33.055</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.87</v>
+        <v>17.331</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.53</v>
+        <v>2.736</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.2</v>
+        <v>32.893</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.36</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.79</v>
+        <v>12.817</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.52</v>
+        <v>15.087</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.77</v>
+        <v>20.471</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.84</v>
+        <v>60.925</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.88</v>
+        <v>9.111000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.55</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45115.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.82</v>
+        <v>10.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.87</v>
+        <v>7.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.1</v>
+        <v>22.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>17.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.44</v>
+        <v>7.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.46</v>
+        <v>34.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.57</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.52</v>
+        <v>5.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.62</v>
+        <v>7.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.57</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.6</v>
+        <v>9.35</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.3</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.61</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.55</v>
+        <v>11.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.1</v>
+        <v>6.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.69</v>
+        <v>112.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.57</v>
+        <v>22.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.59</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.97</v>
+        <v>14.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.57</v>
+        <v>7.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.49</v>
+        <v>1.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.32</v>
+        <v>16.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.06</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.56</v>
+        <v>5.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.2</v>
+        <v>6.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.35</v>
+        <v>9.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.57</v>
+        <v>31.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.5</v>
+        <v>4.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_434.xlsx
+++ b/DATA_goal/Junction_Flooding_434.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45115.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45115.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.438</v>
+        <v>3.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.742000000000001</v>
+        <v>3.131</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.644</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.34</v>
+        <v>6.547</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.233</v>
+        <v>6.207</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.670999999999999</v>
+        <v>1.954</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.64</v>
+        <v>6.859</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.125</v>
+        <v>3.566</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.446</v>
+        <v>1.64</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.346</v>
+        <v>2.243</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.795</v>
+        <v>3.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.458</v>
+        <v>3.422</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.141</v>
+        <v>1.109</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.775</v>
+        <v>2.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.693</v>
+        <v>3.923</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.586</v>
+        <v>2.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.431</v>
+        <v>0.569</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.907</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.465</v>
+        <v>32.186</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.369</v>
+        <v>7.286</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.023</v>
+        <v>2.585</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.954</v>
+        <v>4.457</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.353999999999999</v>
+        <v>2.232</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.907</v>
+        <v>0.325</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.502</v>
+        <v>3.816</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.97</v>
+        <v>2.116</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.234</v>
+        <v>1.665</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.537000000000001</v>
+        <v>2.228</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.058</v>
+        <v>2.944</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.625</v>
+        <v>6.653</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.876</v>
+        <v>2.478</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.281</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45115.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.531</v>
+        <v>5.273</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.557</v>
+        <v>4.342</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.514</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.272</v>
+        <v>11.009</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.785</v>
+        <v>9.603999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.641</v>
+        <v>3.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.913</v>
+        <v>13.706</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.341</v>
+        <v>6.063</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.058</v>
+        <v>2.744</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.777</v>
+        <v>3.938</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.667</v>
+        <v>5.147</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.859</v>
+        <v>5.097</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.676</v>
+        <v>1.469</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.67</v>
+        <v>3.941</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.073</v>
+        <v>6.084</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15</v>
+        <v>3.399</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.056</v>
+        <v>0.424</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.993</v>
+        <v>0.044</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>261.643</v>
+        <v>55.309</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.381</v>
+        <v>11.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.31</v>
+        <v>3.955</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.055</v>
+        <v>7.533</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.331</v>
+        <v>3.868</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.736</v>
+        <v>0.531</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.893</v>
+        <v>7.203</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.407</v>
+        <v>3.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.817</v>
+        <v>2.793</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.087</v>
+        <v>3.516</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.471</v>
+        <v>4.768</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>60.925</v>
+        <v>12.836</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.111000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.392</v>
+        <v>4.549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45115.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.04</v>
+        <v>4.823</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.29</v>
+        <v>3.872</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.114</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.07</v>
+        <v>10.095</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.52</v>
+        <v>8.712</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>14.457</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.567</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.623</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.574</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.608</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.551</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>49.692</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>10.568</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.968</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>7.317</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>4.354</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>13.567</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.498</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>4.172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>7.83</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>112.87</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
+      <c r="G6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_434.xlsx
+++ b/DATA_goal/Junction_Flooding_434.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45115.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45115.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.26</v>
+        <v>12.438</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.131</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.644</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.547</v>
+        <v>27.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.207</v>
+        <v>21.233</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.954</v>
+        <v>9.670999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.859</v>
+        <v>37.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.566</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.64</v>
+        <v>6.446</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.243</v>
+        <v>9.346</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.83</v>
+        <v>10.795</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.422</v>
+        <v>11.458</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.109</v>
+        <v>3.141</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.36</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.923</v>
+        <v>13.693</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.12</v>
+        <v>8.586</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.569</v>
+        <v>1.431</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.186</v>
+        <v>141.465</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.286</v>
+        <v>27.369</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.585</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.457</v>
+        <v>17.954</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.232</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.325</v>
+        <v>1.907</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.816</v>
+        <v>18.502</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.116</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.665</v>
+        <v>7.234</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.228</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.944</v>
+        <v>11.058</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.653</v>
+        <v>34.625</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.478</v>
+        <v>4.876</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.7</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45115.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.273</v>
+        <v>22.531</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.342</v>
+        <v>16.557</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.514</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.009</v>
+        <v>49.272</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.603999999999999</v>
+        <v>39.785</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.7</v>
+        <v>17.641</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.706</v>
+        <v>66.913</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.063</v>
+        <v>27.341</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.744</v>
+        <v>12.058</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.938</v>
+        <v>17.777</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.147</v>
+        <v>19.667</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.097</v>
+        <v>20.859</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.469</v>
+        <v>5.676</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.941</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.084</v>
+        <v>25.073</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.399</v>
+        <v>15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.424</v>
+        <v>1.056</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.044</v>
+        <v>0.993</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.309</v>
+        <v>261.643</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.54</v>
+        <v>49.381</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.955</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.533</v>
+        <v>33.055</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.868</v>
+        <v>17.331</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.531</v>
+        <v>2.736</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.203</v>
+        <v>32.893</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.36</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.793</v>
+        <v>12.817</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.516</v>
+        <v>15.087</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.768</v>
+        <v>20.471</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.836</v>
+        <v>60.925</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.88</v>
+        <v>9.111000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.549</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45115.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.823</v>
+        <v>10.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.872</v>
+        <v>7.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.114</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.095</v>
+        <v>22.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.712</v>
+        <v>17.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.439</v>
+        <v>7.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.457</v>
+        <v>34.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.567</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.518</v>
+        <v>5.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.623</v>
+        <v>7.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.574</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.6</v>
+        <v>9.35</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.299</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.608</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.551</v>
+        <v>11.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.099</v>
+        <v>6.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.334</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.692</v>
+        <v>112.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.568</v>
+        <v>22.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.587</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.968</v>
+        <v>14.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.57</v>
+        <v>7.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.486</v>
+        <v>1.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.317</v>
+        <v>16.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.059</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.557</v>
+        <v>5.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.205</v>
+        <v>6.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.354</v>
+        <v>9.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.567</v>
+        <v>31.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.498</v>
+        <v>4.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.172</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>
